--- a/doc/pr2_design/signal.xlsx
+++ b/doc/pr2_design/signal.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/pr2_design/signal.xlsx
+++ b/doc/pr2_design/signal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,22 @@
   </si>
   <si>
     <t>写PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUsrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自寄存器堆的输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自符号扩展的立即数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,90 +649,105 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/pr2_design/signal.xlsx
+++ b/doc/pr2_design/signal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,22 @@
   </si>
   <si>
     <t>来自符号扩展的立即数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入寄存器堆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,6 +761,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/pr2_design/signal.xlsx
+++ b/doc/pr2_design/signal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +239,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,14 +271,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - 着色 4" xfId="1" builtinId="44"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,7 +590,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,20 +632,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -646,20 +666,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -677,17 +697,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -705,17 +725,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -733,17 +753,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -761,17 +781,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/doc/pr2_design/signal.xlsx
+++ b/doc/pr2_design/signal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,219 +17,227 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>控制信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>置0时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>置1时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>置10时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>来自寄存器堆的输出Reg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>来自寄存器堆的输出Reg2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>转发写回的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>转发上一次ALU运算结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MemRead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>读内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ForwardA(2位)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ForwardB(2位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MemWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>写内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MemtoReg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>写入ALU输出值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>写入内存输入值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发生阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ALUop（3位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Branch（2位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PC+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PC+4+immediate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>001:减,010:与，011:或，100:非，101:左移,110:右移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ttype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小于T为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不等于T为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Twrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>写入T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PCWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>写PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ALUsrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>来自寄存器堆的输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>来自符号扩展的立即数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RegWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>写入寄存器堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,7 +265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -271,20 +285,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="60% - 着色 4" xfId="1" builtinId="44"/>
+  <cellStyles count="3">
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
+    <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,7 +609,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,20 +620,20 @@
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -632,20 +651,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -666,20 +685,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -697,17 +716,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -725,17 +744,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -753,17 +772,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -781,22 +800,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
